--- a/Mainland Peak Load Data.xlsx
+++ b/Mainland Peak Load Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AFCD6E-32A9-4123-B9EE-533D35CCA43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE6A285-A60B-4D08-94B3-A9C5ED5507F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2510,7 +2510,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4056,6 +4056,9 @@
       <c r="E42" s="10">
         <v>83.753680000000003</v>
       </c>
+      <c r="F42" s="11">
+        <v>46103.7</v>
+      </c>
       <c r="G42" s="10">
         <v>48460</v>
       </c>
@@ -4075,684 +4078,184 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B43" s="10">
-        <v>245.33433649999995</v>
-      </c>
-      <c r="C43" s="10">
-        <v>255.48716249999995</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1078.8202879999999</v>
-      </c>
-      <c r="E43" s="10">
-        <v>84.088694720000007</v>
-      </c>
-      <c r="G43" s="10">
-        <v>49990</v>
-      </c>
-      <c r="H43" s="10">
-        <v>53870</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="0"/>
-        <v>52408.826863899994</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="1"/>
-        <v>49940.784475195003</v>
-      </c>
-      <c r="K43">
-        <v>54897.8540570123</v>
-      </c>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
-        <v>2022</v>
-      </c>
-      <c r="B44" s="10">
-        <v>256.37438164249994</v>
-      </c>
-      <c r="C44" s="10">
-        <v>264.42921318749995</v>
-      </c>
-      <c r="D44" s="10">
-        <v>1121.97309952</v>
-      </c>
-      <c r="E44" s="10">
-        <v>84.42504949888</v>
-      </c>
-      <c r="G44" s="10">
-        <v>51400</v>
-      </c>
-      <c r="H44" s="10">
-        <v>58960</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>54533.068981061995</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="1"/>
-        <v>51429.867547207294</v>
-      </c>
-      <c r="K44">
-        <v>58897.593276599597</v>
-      </c>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>2023</v>
-      </c>
-      <c r="B45" s="10">
-        <v>267.9112288164124</v>
-      </c>
-      <c r="C45" s="10">
-        <v>273.68423564906243</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1166.8520235008</v>
-      </c>
-      <c r="E45" s="10">
-        <v>84.762749696875517</v>
-      </c>
-      <c r="G45" s="10">
-        <v>53210</v>
-      </c>
-      <c r="H45" s="10">
-        <v>64120</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>56743.345306300107</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="1"/>
-        <v>52974.993122419459</v>
-      </c>
-      <c r="K45">
-        <v>62981.590353658597</v>
-      </c>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
-        <v>2024</v>
-      </c>
-      <c r="B46" s="10">
-        <v>279.96723411315094</v>
-      </c>
-      <c r="C46" s="10">
-        <v>283.26318389677959</v>
-      </c>
-      <c r="D46" s="10">
-        <v>1213.5261044408321</v>
-      </c>
-      <c r="E46" s="10">
-        <v>85.101800695663016</v>
-      </c>
-      <c r="G46" s="10">
-        <v>55310</v>
-      </c>
-      <c r="H46" s="10">
-        <v>68010</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>59043.192924334871</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="1"/>
-        <v>54578.495363141934</v>
-      </c>
-      <c r="K46">
-        <v>67153.369091028304</v>
-      </c>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
-        <v>2025</v>
-      </c>
-      <c r="B47" s="10">
-        <v>292.5657596482427</v>
-      </c>
-      <c r="C47" s="10">
-        <v>293.17739533316688</v>
-      </c>
-      <c r="D47" s="10">
-        <v>1262.0671486184654</v>
-      </c>
-      <c r="E47" s="10">
-        <v>85.442207898445673</v>
-      </c>
-      <c r="G47" s="10">
-        <v>57170</v>
-      </c>
-      <c r="H47" s="10">
-        <v>72490</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>61436.294844938209</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="1"/>
-        <v>56242.806787531925</v>
-      </c>
-      <c r="K47">
-        <v>71416.595866776595</v>
-      </c>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
-        <v>2026</v>
-      </c>
-      <c r="B48" s="10">
-        <v>305.73121883241362</v>
-      </c>
-      <c r="C48" s="10">
-        <v>303.43860416982773</v>
-      </c>
-      <c r="D48" s="10">
-        <v>1312.5498345632041</v>
-      </c>
-      <c r="E48" s="10">
-        <v>85.783976730039456</v>
-      </c>
-      <c r="G48" s="10">
-        <v>58080</v>
-      </c>
-      <c r="H48" s="10">
-        <v>73550</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>63926.486038359013</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="1"/>
-        <v>57970.462425535938</v>
-      </c>
-      <c r="K48">
-        <v>75775.085384467398</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
-        <v>2027</v>
-      </c>
-      <c r="B49" s="10">
-        <v>319.48912367987219</v>
-      </c>
-      <c r="C49" s="10">
-        <v>314.0589553157717</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1365.0518279457322</v>
-      </c>
-      <c r="E49" s="10">
-        <v>86.127112636959609</v>
-      </c>
-      <c r="G49" s="10">
-        <v>59590</v>
-      </c>
-      <c r="H49" s="10">
-        <v>81460</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>66517.759721019451</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="1"/>
-        <v>59764.104150821368</v>
-      </c>
-      <c r="K49">
-        <v>80232.806655298598</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
-        <v>2028</v>
-      </c>
-      <c r="B50" s="10">
-        <v>333.86613424546641</v>
-      </c>
-      <c r="C50" s="10">
-        <v>325.05101875182368</v>
-      </c>
-      <c r="D50" s="10">
-        <v>1419.6539010635615</v>
-      </c>
-      <c r="E50" s="10">
-        <v>86.471621087507444</v>
-      </c>
-      <c r="G50" s="10">
-        <v>61390</v>
-      </c>
-      <c r="H50" s="10">
-        <v>86260</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="0"/>
-        <v>69214.273901888489</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="1"/>
-        <v>61626.485196166963</v>
-      </c>
-      <c r="K50">
-        <v>84793.889221463905</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
-        <v>2029</v>
-      </c>
-      <c r="B51" s="10">
-        <v>348.89011028651237</v>
-      </c>
-      <c r="C51" s="10">
-        <v>336.42780440813749</v>
-      </c>
-      <c r="D51" s="10">
-        <v>1476.4400571061039</v>
-      </c>
-      <c r="E51" s="10">
-        <v>86.817507571857476</v>
-      </c>
-      <c r="G51" s="10">
-        <v>63640</v>
-      </c>
-      <c r="H51" s="10">
-        <v>93170</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>72020.35820037291</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="1"/>
-        <v>63560.47486009993</v>
-      </c>
-      <c r="K51">
-        <v>89462.629630467505</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
-        <v>2030</v>
-      </c>
-      <c r="B52" s="10">
-        <v>364.5901652494054</v>
-      </c>
-      <c r="C52" s="10">
-        <v>348.20277756242228</v>
-      </c>
-      <c r="D52" s="10">
-        <v>1535.4976593903482</v>
-      </c>
-      <c r="E52" s="10">
-        <v>87.164777602144909</v>
-      </c>
-      <c r="G52" s="10">
-        <v>67070</v>
-      </c>
-      <c r="H52" s="10">
-        <v>81410</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>74940.520947018813</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="1"/>
-        <v>65569.06341289902</v>
-      </c>
-      <c r="K52">
-        <v>94243.498170511797</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
-        <v>2031</v>
-      </c>
-      <c r="B53" s="10">
-        <v>380.99672268562864</v>
-      </c>
-      <c r="C53" s="10">
-        <v>360.38987477710702</v>
-      </c>
-      <c r="D53" s="10">
-        <v>1596.9175657659621</v>
-      </c>
-      <c r="E53" s="10">
-        <v>87.513436712553485</v>
-      </c>
-      <c r="G53" s="10">
-        <v>69770</v>
-      </c>
-      <c r="H53" s="10">
-        <v>101600</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>77979.456578786645</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="1"/>
-        <v>67655.367210428478</v>
-      </c>
-      <c r="K53">
-        <v>99141.1458774903</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
-        <v>2032</v>
-      </c>
-      <c r="B54" s="10">
-        <v>398.14157520648189</v>
-      </c>
-      <c r="C54" s="10">
-        <v>373.00352039430572</v>
-      </c>
-      <c r="D54" s="10">
-        <v>1660.7942683966007</v>
-      </c>
-      <c r="E54" s="10">
-        <v>87.863490459403693</v>
-      </c>
-      <c r="G54" s="10">
-        <v>69660</v>
-      </c>
-      <c r="H54" s="10">
-        <v>109200</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>81142.053341154766</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="1"/>
-        <v>69822.6340246279</v>
-      </c>
-      <c r="K54">
-        <v>104160.41182454</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
-        <v>2033</v>
-      </c>
-      <c r="B55" s="10">
-        <v>416.05794609077356</v>
-      </c>
-      <c r="C55" s="10">
-        <v>386.05864360810642</v>
-      </c>
-      <c r="D55" s="10">
-        <v>1727.2260391324648</v>
-      </c>
-      <c r="E55" s="10">
-        <v>88.214944421241313</v>
-      </c>
-      <c r="G55" s="10">
-        <v>74600</v>
-      </c>
-      <c r="H55" s="10">
-        <v>112300</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>84433.401309816807</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="1"/>
-        <v>72074.24859985878</v>
-      </c>
-      <c r="K55">
-        <v>109306.330705549</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
-        <v>2034</v>
-      </c>
-      <c r="B56" s="10">
-        <v>434.78055366485836</v>
-      </c>
-      <c r="C56" s="10">
-        <v>399.57069613439012</v>
-      </c>
-      <c r="D56" s="10">
-        <v>1796.3150806977635</v>
-      </c>
-      <c r="E56" s="10">
-        <v>88.567804198926282</v>
-      </c>
-      <c r="G56" s="10">
-        <v>77150</v>
-      </c>
-      <c r="H56" s="10">
-        <v>117900</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="0"/>
-        <v>87858.800745271205</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="1"/>
-        <v>74413.738444700663</v>
-      </c>
-      <c r="K56">
-        <v>114584.140724476</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
-        <v>2035</v>
-      </c>
-      <c r="B57" s="10">
-        <v>454.34567857977697</v>
-      </c>
-      <c r="C57" s="10">
-        <v>413.55567049909376</v>
-      </c>
-      <c r="D57" s="10">
-        <v>1868.1676839256741</v>
-      </c>
-      <c r="E57" s="10">
-        <v>88.922075415721991</v>
-      </c>
-      <c r="G57" s="10">
-        <v>76320</v>
-      </c>
-      <c r="H57" s="10">
-        <v>126500</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>91423.770794156153</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="1"/>
-        <v>76844.77986919765</v>
-      </c>
-      <c r="K57">
-        <v>119999.29180282399</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
-        <v>2036</v>
-      </c>
-      <c r="B58" s="10">
-        <v>474.79123411586693</v>
-      </c>
-      <c r="C58" s="10">
-        <v>428.03011896656199</v>
-      </c>
-      <c r="D58" s="10">
-        <v>1942.894391282701</v>
-      </c>
-      <c r="E58" s="10">
-        <v>89.277763717384886</v>
-      </c>
-      <c r="G58" s="10">
-        <v>82520</v>
-      </c>
-      <c r="H58" s="10">
-        <v>129400</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>95134.058551761904</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="1"/>
-        <v>79371.204277982368</v>
-      </c>
-      <c r="K58">
-        <v>125557.454118088</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="9">
-        <v>2037</v>
-      </c>
-      <c r="B59" s="10">
-        <v>496.15683965108093</v>
-      </c>
-      <c r="C59" s="10">
-        <v>443.01117313039163</v>
-      </c>
-      <c r="D59" s="10">
-        <v>2020.6101669340092</v>
-      </c>
-      <c r="E59" s="10">
-        <v>89.63487477225442</v>
-      </c>
-      <c r="G59" s="10">
-        <v>81270</v>
-      </c>
-      <c r="H59" s="10">
-        <v>126300</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>98995.648500753567</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="1"/>
-        <v>81997.004730148401</v>
-      </c>
-      <c r="K59">
-        <v>131264.526986538</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
-        <v>2038</v>
-      </c>
-      <c r="B60" s="10">
-        <v>518.4838974353795</v>
-      </c>
-      <c r="C60" s="10">
-        <v>458.51656418995532</v>
-      </c>
-      <c r="D60" s="10">
-        <v>2101.4345736113696</v>
-      </c>
-      <c r="E60" s="10">
-        <v>89.99341427134344</v>
-      </c>
-      <c r="G60" s="10">
-        <v>85500</v>
-      </c>
-      <c r="H60" s="10">
-        <v>113100</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>103014.77234176666</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="1"/>
-        <v>84726.342777205369</v>
-      </c>
-      <c r="K60">
-        <v>137126.64810422299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
-        <v>2039</v>
-      </c>
-      <c r="B61" s="10">
-        <v>541.8156728199715</v>
-      </c>
-      <c r="C61" s="10">
-        <v>474.56464393660372</v>
-      </c>
-      <c r="D61" s="10">
-        <v>2185.4919565558243</v>
-      </c>
-      <c r="E61" s="10">
-        <v>90.353387928428816</v>
-      </c>
-      <c r="G61" s="10">
-        <v>86500</v>
-      </c>
-      <c r="H61" s="10">
-        <v>137700</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>107197.91923219038</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="1"/>
-        <v>87563.555590933538</v>
-      </c>
-      <c r="K61">
-        <v>143150.20316065199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="9">
-        <v>2040</v>
-      </c>
-      <c r="B62" s="10">
-        <v>566.19737809687012</v>
-      </c>
-      <c r="C62" s="10">
-        <v>491.1744064743848</v>
-      </c>
-      <c r="D62" s="10">
-        <v>2272.9116348180573</v>
-      </c>
-      <c r="E62" s="10">
-        <v>90.714801480142526</v>
-      </c>
-      <c r="G62" s="10">
-        <v>90940</v>
-      </c>
-      <c r="H62" s="10">
-        <v>122200</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>111551.84645013572</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="1"/>
-        <v>90513.163393458468</v>
-      </c>
-      <c r="K62">
-        <v>149341.83584017199</v>
-      </c>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
